--- a/data/pca/factorExposure/factorExposure_2018-04-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01313828376795851</v>
+        <v>-0.01427679312045244</v>
       </c>
       <c r="C2">
-        <v>-0.02759227281882663</v>
+        <v>0.006643915394853496</v>
       </c>
       <c r="D2">
-        <v>-0.02630492391045644</v>
+        <v>0.0374499343823505</v>
       </c>
       <c r="E2">
-        <v>0.004875761736170289</v>
+        <v>-0.01851019997870386</v>
       </c>
       <c r="F2">
-        <v>-0.09483485705267992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.005286293006084949</v>
+      </c>
+      <c r="G2">
+        <v>0.03084477055063935</v>
+      </c>
+      <c r="H2">
+        <v>-0.04475977757045164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08777501899245686</v>
+        <v>-0.06645825020556018</v>
       </c>
       <c r="C3">
-        <v>-0.04517661083071372</v>
+        <v>-0.03447650521549123</v>
       </c>
       <c r="D3">
-        <v>-0.01231410955611458</v>
+        <v>0.0705056667545617</v>
       </c>
       <c r="E3">
-        <v>0.05046346724602887</v>
+        <v>-0.007178787744032326</v>
       </c>
       <c r="F3">
-        <v>-0.3375990204611252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.05308108556017327</v>
+      </c>
+      <c r="G3">
+        <v>0.1387241607366978</v>
+      </c>
+      <c r="H3">
+        <v>-0.1067529572892152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0452477352310938</v>
+        <v>-0.03662721830588168</v>
       </c>
       <c r="C4">
-        <v>-0.01608728171182211</v>
+        <v>-0.0155054063347174</v>
       </c>
       <c r="D4">
-        <v>-0.03527304964546903</v>
+        <v>0.06375363644875705</v>
       </c>
       <c r="E4">
-        <v>-0.03376610374805381</v>
+        <v>0.01668319187015973</v>
       </c>
       <c r="F4">
-        <v>-0.06167549793130234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.03052269427103249</v>
+      </c>
+      <c r="G4">
+        <v>0.04253499784755185</v>
+      </c>
+      <c r="H4">
+        <v>-0.0554730137150009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03354875835963852</v>
+        <v>-0.02126063430420411</v>
       </c>
       <c r="C6">
-        <v>-0.01435954274599826</v>
+        <v>-0.01966153349858105</v>
       </c>
       <c r="D6">
-        <v>-0.0390917794814651</v>
+        <v>0.06207097508491994</v>
       </c>
       <c r="E6">
-        <v>-0.02254100115309702</v>
+        <v>0.005022093929064144</v>
       </c>
       <c r="F6">
-        <v>-0.01185283267814429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02893580189831696</v>
+      </c>
+      <c r="G6">
+        <v>0.01561490996161908</v>
+      </c>
+      <c r="H6">
+        <v>-0.06095248348860555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03874573312760549</v>
+        <v>-0.009228123046680055</v>
       </c>
       <c r="C7">
-        <v>0.02749600225951766</v>
+        <v>-0.008500679716117412</v>
       </c>
       <c r="D7">
-        <v>-0.03284444281222858</v>
+        <v>0.03749297085815036</v>
       </c>
       <c r="E7">
-        <v>-0.01615294281087441</v>
+        <v>0.04321502351064913</v>
       </c>
       <c r="F7">
-        <v>-0.03662156214976536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.005230308681539377</v>
+      </c>
+      <c r="G7">
+        <v>0.0187942874929427</v>
+      </c>
+      <c r="H7">
+        <v>-0.03480872922556371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01680353330955395</v>
+        <v>-0.001511594690449447</v>
       </c>
       <c r="C8">
-        <v>-0.001430202792708561</v>
+        <v>-0.004994712684941876</v>
       </c>
       <c r="D8">
-        <v>-0.04374242808107869</v>
+        <v>0.01152392488529396</v>
       </c>
       <c r="E8">
-        <v>-0.02506272194321625</v>
+        <v>0.01000248497538357</v>
       </c>
       <c r="F8">
-        <v>-0.06261058078480648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.003955312310675</v>
+      </c>
+      <c r="G8">
+        <v>0.03776327726248888</v>
+      </c>
+      <c r="H8">
+        <v>-0.03183072803131868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03386159171424478</v>
+        <v>-0.02590619608234895</v>
       </c>
       <c r="C9">
-        <v>-0.01108921999529207</v>
+        <v>-0.01339974132172109</v>
       </c>
       <c r="D9">
-        <v>-0.03299737424368101</v>
+        <v>0.0474178483526575</v>
       </c>
       <c r="E9">
-        <v>-0.01314068847978277</v>
+        <v>0.006255580245345282</v>
       </c>
       <c r="F9">
-        <v>-0.0785351432236244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.004580733930361049</v>
+      </c>
+      <c r="G9">
+        <v>0.04149072778762578</v>
+      </c>
+      <c r="H9">
+        <v>-0.05222013583190321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04051066399565227</v>
+        <v>-0.1323750078345337</v>
       </c>
       <c r="C10">
-        <v>-0.003089327528700463</v>
+        <v>0.04545202996467727</v>
       </c>
       <c r="D10">
-        <v>0.1477741803773532</v>
+        <v>-0.1406670838103776</v>
       </c>
       <c r="E10">
-        <v>0.05143982943640339</v>
+        <v>-0.0005825222024642706</v>
       </c>
       <c r="F10">
-        <v>-0.06011839025978791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04473094139445811</v>
+      </c>
+      <c r="G10">
+        <v>0.0233141139389844</v>
+      </c>
+      <c r="H10">
+        <v>0.01078220473068736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03136397450324691</v>
+        <v>-0.01703667334280692</v>
       </c>
       <c r="C11">
-        <v>-0.02339572029386318</v>
+        <v>-0.02531603510873614</v>
       </c>
       <c r="D11">
-        <v>-0.03728572282927529</v>
+        <v>0.04387199121123937</v>
       </c>
       <c r="E11">
-        <v>-0.0173744659458624</v>
+        <v>-0.001594483157309011</v>
       </c>
       <c r="F11">
-        <v>-0.02613704396540828</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.006126047052803617</v>
+      </c>
+      <c r="G11">
+        <v>0.01814883929118743</v>
+      </c>
+      <c r="H11">
+        <v>-0.04987958463120365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04267098540497111</v>
+        <v>-0.02095949539001101</v>
       </c>
       <c r="C12">
-        <v>-0.02273675157871016</v>
+        <v>-0.02128136273676427</v>
       </c>
       <c r="D12">
-        <v>-0.03027749327967718</v>
+        <v>0.04400057410374253</v>
       </c>
       <c r="E12">
-        <v>-0.02635212624959454</v>
+        <v>0.01133639196660729</v>
       </c>
       <c r="F12">
-        <v>-0.0004866115579774969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01101236140098107</v>
+      </c>
+      <c r="G12">
+        <v>0.004681896283466438</v>
+      </c>
+      <c r="H12">
+        <v>-0.01920548676651723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01125521836478454</v>
+        <v>-0.018499560597268</v>
       </c>
       <c r="C13">
-        <v>-0.02108195281424828</v>
+        <v>0.005599277310898873</v>
       </c>
       <c r="D13">
-        <v>-0.01129725289581418</v>
+        <v>0.03053506988738517</v>
       </c>
       <c r="E13">
-        <v>-0.008327803725596772</v>
+        <v>-0.01272188593853487</v>
       </c>
       <c r="F13">
-        <v>-0.07587615047296634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.004581284620487772</v>
+      </c>
+      <c r="G13">
+        <v>0.05473049023615362</v>
+      </c>
+      <c r="H13">
+        <v>-0.06936059587058582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02373606755350252</v>
+        <v>-0.01028106080410155</v>
       </c>
       <c r="C14">
-        <v>0.001860592668769586</v>
+        <v>-0.005364180637108522</v>
       </c>
       <c r="D14">
-        <v>-0.01907109743519863</v>
+        <v>0.02157632969440339</v>
       </c>
       <c r="E14">
-        <v>-0.01628661336693042</v>
+        <v>0.01396286046685606</v>
       </c>
       <c r="F14">
-        <v>-0.0475134567754437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.001053793677334471</v>
+      </c>
+      <c r="G14">
+        <v>0.03701190450768279</v>
+      </c>
+      <c r="H14">
+        <v>-0.009194146867037425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03323424216807845</v>
+        <v>-0.0186877940208977</v>
       </c>
       <c r="C16">
-        <v>-0.02374430736424791</v>
+        <v>-0.02283846132161022</v>
       </c>
       <c r="D16">
-        <v>-0.04106907169367133</v>
+        <v>0.03790514375566706</v>
       </c>
       <c r="E16">
-        <v>-0.01978817967325389</v>
+        <v>0.00259315441288605</v>
       </c>
       <c r="F16">
-        <v>-0.02701305485144957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.008628739212655724</v>
+      </c>
+      <c r="G16">
+        <v>0.01773158893831141</v>
+      </c>
+      <c r="H16">
+        <v>-0.03568207007238077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03477134565097126</v>
+        <v>-0.01890822769009793</v>
       </c>
       <c r="C19">
-        <v>-0.01724474486167056</v>
+        <v>-0.01280651438209355</v>
       </c>
       <c r="D19">
-        <v>-0.04692931090027744</v>
+        <v>0.04487993532482936</v>
       </c>
       <c r="E19">
-        <v>-0.03300862136036231</v>
+        <v>0.01124618603715553</v>
       </c>
       <c r="F19">
-        <v>-0.07973805367051506</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.009012250218214923</v>
+      </c>
+      <c r="G19">
+        <v>0.05561855149484675</v>
+      </c>
+      <c r="H19">
+        <v>-0.05347556129876335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.004110518405023266</v>
+        <v>-0.005626460325546794</v>
       </c>
       <c r="C20">
-        <v>0.007127499762154296</v>
+        <v>-0.001696768484386743</v>
       </c>
       <c r="D20">
-        <v>-0.006153159169260916</v>
+        <v>0.0237614402769955</v>
       </c>
       <c r="E20">
-        <v>-0.01153025757659143</v>
+        <v>0.004469151216685881</v>
       </c>
       <c r="F20">
-        <v>-0.0531243034919011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.001684255020106072</v>
+      </c>
+      <c r="G20">
+        <v>0.0472401561617474</v>
+      </c>
+      <c r="H20">
+        <v>-0.02556420244641297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0187951245331869</v>
+        <v>-0.01217207277205719</v>
       </c>
       <c r="C21">
-        <v>0.01600957282952371</v>
+        <v>0.0001367587725164754</v>
       </c>
       <c r="D21">
-        <v>-0.03457705656667503</v>
+        <v>0.02454827225609823</v>
       </c>
       <c r="E21">
-        <v>-0.002673628790535653</v>
+        <v>0.01712460345935597</v>
       </c>
       <c r="F21">
-        <v>-0.02762671687951534</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.009821482387839385</v>
+      </c>
+      <c r="G21">
+        <v>0.03798102699969622</v>
+      </c>
+      <c r="H21">
+        <v>-0.05067606095468392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03003204489490012</v>
+        <v>-0.01374809936521268</v>
       </c>
       <c r="C24">
-        <v>-0.02100010819694636</v>
+        <v>-0.01770840255390488</v>
       </c>
       <c r="D24">
-        <v>-0.02166669535691287</v>
+        <v>0.03994845722327295</v>
       </c>
       <c r="E24">
-        <v>-0.01710517101141391</v>
+        <v>0.0009401569866005036</v>
       </c>
       <c r="F24">
-        <v>-0.03054679150317343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.005840610617908417</v>
+      </c>
+      <c r="G24">
+        <v>0.01217765876818679</v>
+      </c>
+      <c r="H24">
+        <v>-0.04364272924959292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03413473462880482</v>
+        <v>-0.02753443669649182</v>
       </c>
       <c r="C25">
-        <v>-0.01979357599596987</v>
+        <v>-0.01741884062586772</v>
       </c>
       <c r="D25">
-        <v>-0.03386916532347458</v>
+        <v>0.04535864091445666</v>
       </c>
       <c r="E25">
-        <v>-0.01395879848144068</v>
+        <v>0.006607206542566024</v>
       </c>
       <c r="F25">
-        <v>-0.0330434984588662</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01393479365241657</v>
+      </c>
+      <c r="G25">
+        <v>0.01560599643805216</v>
+      </c>
+      <c r="H25">
+        <v>-0.04400642327782172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01686697686710031</v>
+        <v>-0.01073558831247351</v>
       </c>
       <c r="C26">
-        <v>-0.01088308093175333</v>
+        <v>0.01488345198028699</v>
       </c>
       <c r="D26">
-        <v>-0.02153799074461851</v>
+        <v>0.01759531266961688</v>
       </c>
       <c r="E26">
-        <v>0.004042322079191469</v>
+        <v>0.000793612803236361</v>
       </c>
       <c r="F26">
-        <v>-0.05091459030646782</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.006213194452663979</v>
+      </c>
+      <c r="G26">
+        <v>0.02328911513460455</v>
+      </c>
+      <c r="H26">
+        <v>-0.0169128102935755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.03879830123436497</v>
+        <v>-0.01433464951803967</v>
       </c>
       <c r="C27">
-        <v>-0.01852376850940248</v>
+        <v>-0.008963559857525895</v>
       </c>
       <c r="D27">
-        <v>-0.002188421056193355</v>
+        <v>0.01089757437522396</v>
       </c>
       <c r="E27">
-        <v>-0.0266402145840779</v>
+        <v>0.006641164538557003</v>
       </c>
       <c r="F27">
-        <v>-0.012113556759711</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.002611136018859708</v>
+      </c>
+      <c r="G27">
+        <v>0.007170862425118818</v>
+      </c>
+      <c r="H27">
+        <v>0.004774545444038345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0725058346102954</v>
+        <v>-0.1843053470886841</v>
       </c>
       <c r="C28">
-        <v>-0.007575243707481796</v>
+        <v>0.07035050450147826</v>
       </c>
       <c r="D28">
-        <v>0.2116554010772439</v>
+        <v>-0.1790101105401288</v>
       </c>
       <c r="E28">
-        <v>0.08302649974893954</v>
+        <v>0.01205793869783474</v>
       </c>
       <c r="F28">
-        <v>-0.0574219119362074</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04136601564989532</v>
+      </c>
+      <c r="G28">
+        <v>0.01132447433687712</v>
+      </c>
+      <c r="H28">
+        <v>0.01472139448363691</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0252564198315809</v>
+        <v>-0.01599620088040323</v>
       </c>
       <c r="C29">
-        <v>0.001110945137160521</v>
+        <v>-0.005735917731697788</v>
       </c>
       <c r="D29">
-        <v>-0.02214657503247558</v>
+        <v>0.01941800407393815</v>
       </c>
       <c r="E29">
-        <v>-0.01781211029807243</v>
+        <v>0.01341778261140817</v>
       </c>
       <c r="F29">
-        <v>-0.0445139936022107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.001536947496635226</v>
+      </c>
+      <c r="G29">
+        <v>0.03610085758101854</v>
+      </c>
+      <c r="H29">
+        <v>-0.004678938813049221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.05164339873121638</v>
+        <v>-0.03430343876006647</v>
       </c>
       <c r="C30">
-        <v>-0.07576063309768362</v>
+        <v>-0.02636520128445293</v>
       </c>
       <c r="D30">
-        <v>-0.05990343443569884</v>
+        <v>0.09224248174965576</v>
       </c>
       <c r="E30">
-        <v>-0.03893913167154165</v>
+        <v>-0.03223265117619244</v>
       </c>
       <c r="F30">
-        <v>-0.08619698606953208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.0273682984433881</v>
+      </c>
+      <c r="G30">
+        <v>0.05888640153043962</v>
+      </c>
+      <c r="H30">
+        <v>-0.07128450169835021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05394513309391603</v>
+        <v>-0.04469394628000368</v>
       </c>
       <c r="C31">
-        <v>-0.03754033857767338</v>
+        <v>-0.01750457824225495</v>
       </c>
       <c r="D31">
-        <v>-0.01957642689738789</v>
+        <v>0.0277857897443644</v>
       </c>
       <c r="E31">
-        <v>-0.01877847307539676</v>
+        <v>-0.00162753349090205</v>
       </c>
       <c r="F31">
-        <v>-0.02838439589953362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.003439073302268495</v>
+      </c>
+      <c r="G31">
+        <v>0.0152803199373023</v>
+      </c>
+      <c r="H31">
+        <v>-0.003385000459010993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02412437794665513</v>
+        <v>-0.008553480778780506</v>
       </c>
       <c r="C32">
-        <v>0.01425400562282972</v>
+        <v>-0.01639394188279733</v>
       </c>
       <c r="D32">
-        <v>-0.05413971357779183</v>
+        <v>0.009322248823235905</v>
       </c>
       <c r="E32">
-        <v>-0.03722545031683958</v>
+        <v>0.03072998107701051</v>
       </c>
       <c r="F32">
-        <v>-0.0444354462160689</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.02660432336349568</v>
+      </c>
+      <c r="G32">
+        <v>0.04340865210680347</v>
+      </c>
+      <c r="H32">
+        <v>-0.04860133063552288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.032929397353003</v>
+        <v>-0.02111618601571215</v>
       </c>
       <c r="C33">
-        <v>-0.0435659463073855</v>
+        <v>-0.01468822905578825</v>
       </c>
       <c r="D33">
-        <v>-0.05229196893847311</v>
+        <v>0.04809963822356768</v>
       </c>
       <c r="E33">
-        <v>-0.001122145440599716</v>
+        <v>-0.01948495956127011</v>
       </c>
       <c r="F33">
-        <v>-0.06154071001413052</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01287880564118176</v>
+      </c>
+      <c r="G33">
+        <v>0.03612645194928786</v>
+      </c>
+      <c r="H33">
+        <v>-0.04883114109244318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0371086708030945</v>
+        <v>-0.02571140700505518</v>
       </c>
       <c r="C34">
-        <v>-0.01610209796616882</v>
+        <v>-0.03283670214084654</v>
       </c>
       <c r="D34">
-        <v>-0.04291129886282165</v>
+        <v>0.03984350304965785</v>
       </c>
       <c r="E34">
-        <v>-0.02784039081159883</v>
+        <v>0.01377554661061272</v>
       </c>
       <c r="F34">
-        <v>-0.02599976323995543</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01563638280004094</v>
+      </c>
+      <c r="G34">
+        <v>0.007991569007853803</v>
+      </c>
+      <c r="H34">
+        <v>-0.03505563909649711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01838426503682009</v>
+        <v>-0.0154498513230605</v>
       </c>
       <c r="C36">
-        <v>-0.0002320187612936934</v>
+        <v>0.004502429994588067</v>
       </c>
       <c r="D36">
-        <v>-0.01298768719715264</v>
+        <v>0.009214776737659899</v>
       </c>
       <c r="E36">
-        <v>-0.009475693557754438</v>
+        <v>0.007985538153512673</v>
       </c>
       <c r="F36">
-        <v>-0.02797478676989208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.004336827976652025</v>
+      </c>
+      <c r="G36">
+        <v>0.01557629681179926</v>
+      </c>
+      <c r="H36">
+        <v>-0.0148467634487972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.008684196039388933</v>
+        <v>-0.02419519534087749</v>
       </c>
       <c r="C38">
-        <v>-0.004898755414741664</v>
+        <v>-0.01862575667270595</v>
       </c>
       <c r="D38">
-        <v>-0.002184409454613567</v>
+        <v>0.01038937740246711</v>
       </c>
       <c r="E38">
-        <v>0.01694875849176024</v>
+        <v>0.0008972197777197473</v>
       </c>
       <c r="F38">
-        <v>-0.04480203748301099</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.001960425428379763</v>
+      </c>
+      <c r="G38">
+        <v>0.02176357166806829</v>
+      </c>
+      <c r="H38">
+        <v>-0.03165681779226392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02991681800461999</v>
+        <v>-0.007600849907151672</v>
       </c>
       <c r="C39">
-        <v>-0.02197120343736848</v>
+        <v>-0.03420637044744475</v>
       </c>
       <c r="D39">
-        <v>-0.05837506387490175</v>
+        <v>0.08183899014956846</v>
       </c>
       <c r="E39">
-        <v>-0.02039101692973067</v>
+        <v>-0.006302352685032376</v>
       </c>
       <c r="F39">
-        <v>-0.04628905546494161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.009215837132912071</v>
+      </c>
+      <c r="G39">
+        <v>0.02901757033394366</v>
+      </c>
+      <c r="H39">
+        <v>-0.07898299234591477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01870980558704327</v>
+        <v>-0.02625647337131309</v>
       </c>
       <c r="C40">
-        <v>-0.04963059821724692</v>
+        <v>-0.01006143769059249</v>
       </c>
       <c r="D40">
-        <v>-0.02371192399426453</v>
+        <v>0.03209395878041205</v>
       </c>
       <c r="E40">
-        <v>-0.02778897346007188</v>
+        <v>-0.0236697009849334</v>
       </c>
       <c r="F40">
-        <v>-0.04138514277709674</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02652506147022905</v>
+      </c>
+      <c r="G40">
+        <v>0.01644992709979037</v>
+      </c>
+      <c r="H40">
+        <v>-0.0564773673745475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006648067645265219</v>
+        <v>-0.0128406397552651</v>
       </c>
       <c r="C41">
-        <v>0.001186062848254518</v>
+        <v>0.005619426936026879</v>
       </c>
       <c r="D41">
-        <v>-0.004961853341267505</v>
+        <v>-0.007530896451315655</v>
       </c>
       <c r="E41">
-        <v>0.01138680999131064</v>
+        <v>0.004546653085539403</v>
       </c>
       <c r="F41">
-        <v>-0.002037686611008921</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006670566121889619</v>
+      </c>
+      <c r="G41">
+        <v>-0.004411016625339539</v>
+      </c>
+      <c r="H41">
+        <v>0.005360187504544279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2236494181292688</v>
+        <v>-0.1064353933882341</v>
       </c>
       <c r="C42">
-        <v>-0.2145281378091989</v>
+        <v>0.004168671577589498</v>
       </c>
       <c r="D42">
-        <v>-0.2320228805658662</v>
+        <v>0.2472371095154185</v>
       </c>
       <c r="E42">
-        <v>0.8551256354146364</v>
+        <v>-0.2248225219385541</v>
       </c>
       <c r="F42">
-        <v>0.2686443432665659</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.798962062013145</v>
+      </c>
+      <c r="G42">
+        <v>-0.4660924989364069</v>
+      </c>
+      <c r="H42">
+        <v>-0.03638680448585964</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006025966655977189</v>
+        <v>-0.0136831430103147</v>
       </c>
       <c r="C43">
-        <v>-0.003422987455257672</v>
+        <v>0.005890628786311293</v>
       </c>
       <c r="D43">
-        <v>-0.01043464957977723</v>
+        <v>-0.006293172185080968</v>
       </c>
       <c r="E43">
-        <v>0.004815923487943749</v>
+        <v>0.0002409949240366083</v>
       </c>
       <c r="F43">
-        <v>-0.02361709519994031</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.00778775946403291</v>
+      </c>
+      <c r="G43">
+        <v>-0.001121031085418438</v>
+      </c>
+      <c r="H43">
+        <v>-0.004033427434300291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02491579203660742</v>
+        <v>-0.01217413659399872</v>
       </c>
       <c r="C44">
-        <v>0.003619701550091137</v>
+        <v>-0.01728619246216154</v>
       </c>
       <c r="D44">
-        <v>-0.03253608641602897</v>
+        <v>0.03791698340561314</v>
       </c>
       <c r="E44">
-        <v>-0.0008193851149607158</v>
+        <v>0.0141735428738983</v>
       </c>
       <c r="F44">
-        <v>-0.09269528739982623</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01455092170910237</v>
+      </c>
+      <c r="G44">
+        <v>0.03451541701409794</v>
+      </c>
+      <c r="H44">
+        <v>-0.05759221956086098</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01993180654410861</v>
+        <v>-0.005501075081818819</v>
       </c>
       <c r="C46">
-        <v>-0.009635362749313597</v>
+        <v>0.001174818293993014</v>
       </c>
       <c r="D46">
-        <v>-0.05668635011671618</v>
+        <v>0.01871977808322598</v>
       </c>
       <c r="E46">
-        <v>-0.02103109598345279</v>
+        <v>0.001566006854346159</v>
       </c>
       <c r="F46">
-        <v>-0.06026547753161472</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.006810447089293255</v>
+      </c>
+      <c r="G46">
+        <v>0.03733913167339053</v>
+      </c>
+      <c r="H46">
+        <v>-0.007772522496307315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08044502918217122</v>
+        <v>-0.06008931335145397</v>
       </c>
       <c r="C47">
-        <v>-0.05039722358848971</v>
+        <v>-0.04095542337041629</v>
       </c>
       <c r="D47">
-        <v>-0.01212013502667665</v>
+        <v>0.05115636984134764</v>
       </c>
       <c r="E47">
-        <v>-0.02646515693889415</v>
+        <v>0.005838791179545437</v>
       </c>
       <c r="F47">
-        <v>-0.004069896507090321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.006704389393623458</v>
+      </c>
+      <c r="G47">
+        <v>-0.002918184823252171</v>
+      </c>
+      <c r="H47">
+        <v>0.03208103570333917</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01854209359800205</v>
+        <v>-0.01613224929767488</v>
       </c>
       <c r="C48">
-        <v>-0.01140618045971968</v>
+        <v>-0.00843775278144146</v>
       </c>
       <c r="D48">
-        <v>-0.02122355654755965</v>
+        <v>0.0134363586226136</v>
       </c>
       <c r="E48">
-        <v>-0.009143482978270284</v>
+        <v>0.0009732086545678674</v>
       </c>
       <c r="F48">
-        <v>-0.03343419047034869</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0006435210189807782</v>
+      </c>
+      <c r="G48">
+        <v>0.01715256095966812</v>
+      </c>
+      <c r="H48">
+        <v>-0.01869508964664903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08495059378917318</v>
+        <v>-0.06375989029253237</v>
       </c>
       <c r="C50">
-        <v>-0.03417111124944099</v>
+        <v>-0.03825656190396366</v>
       </c>
       <c r="D50">
-        <v>-0.03443981627502555</v>
+        <v>0.04926946592659013</v>
       </c>
       <c r="E50">
-        <v>-0.01886582617310372</v>
+        <v>0.01703569405255096</v>
       </c>
       <c r="F50">
-        <v>-0.01577971666921583</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.0004492915018222851</v>
+      </c>
+      <c r="G50">
+        <v>0.005494672617455636</v>
+      </c>
+      <c r="H50">
+        <v>0.01786422220500526</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02133265932504663</v>
+        <v>-0.01516468014969578</v>
       </c>
       <c r="C51">
-        <v>-0.005259985095393369</v>
+        <v>-0.001908738064165909</v>
       </c>
       <c r="D51">
-        <v>0.001787940936094345</v>
+        <v>0.01272868838029396</v>
       </c>
       <c r="E51">
-        <v>-0.003086662132567823</v>
+        <v>0.008332307911208911</v>
       </c>
       <c r="F51">
-        <v>-0.08396861917509969</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.006210713627135342</v>
+      </c>
+      <c r="G51">
+        <v>0.03031427146164668</v>
+      </c>
+      <c r="H51">
+        <v>-0.04236069759145374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09011876154706291</v>
+        <v>-0.07727669848464043</v>
       </c>
       <c r="C53">
-        <v>-0.0552947580704027</v>
+        <v>-0.05918795362078676</v>
       </c>
       <c r="D53">
-        <v>-0.03943455578953305</v>
+        <v>0.08223083955661364</v>
       </c>
       <c r="E53">
-        <v>-0.03992723066172075</v>
+        <v>0.009547717585077433</v>
       </c>
       <c r="F53">
-        <v>0.03598943273071948</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02715668233516919</v>
+      </c>
+      <c r="G53">
+        <v>-0.02302137763551478</v>
+      </c>
+      <c r="H53">
+        <v>0.02896489358802716</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02637733889453156</v>
+        <v>-0.0238134302978873</v>
       </c>
       <c r="C54">
-        <v>-0.002819776771987328</v>
+        <v>-0.005483105392150047</v>
       </c>
       <c r="D54">
-        <v>0.002272490884030412</v>
+        <v>-0.004349945151353975</v>
       </c>
       <c r="E54">
-        <v>-0.01054013107028052</v>
+        <v>0.006251668451479007</v>
       </c>
       <c r="F54">
-        <v>-0.02689154753227435</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.0113523264568351</v>
+      </c>
+      <c r="G54">
+        <v>0.03542826573937836</v>
+      </c>
+      <c r="H54">
+        <v>0.002979470381276011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08715955252401043</v>
+        <v>-0.05909960541953037</v>
       </c>
       <c r="C55">
-        <v>-0.04909943127989995</v>
+        <v>-0.05272190192214352</v>
       </c>
       <c r="D55">
-        <v>-0.04250745168734323</v>
+        <v>0.07538607174185097</v>
       </c>
       <c r="E55">
-        <v>-0.03352280530617514</v>
+        <v>0.009854862227707076</v>
       </c>
       <c r="F55">
-        <v>0.03970776100661738</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01421858270133539</v>
+      </c>
+      <c r="G55">
+        <v>-0.007561700586013677</v>
+      </c>
+      <c r="H55">
+        <v>0.03909059496305297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.125150504127401</v>
+        <v>-0.1009196960562098</v>
       </c>
       <c r="C56">
-        <v>-0.08134350451011499</v>
+        <v>-0.08052416844169091</v>
       </c>
       <c r="D56">
-        <v>-0.02332895776131605</v>
+        <v>0.1012312789200679</v>
       </c>
       <c r="E56">
-        <v>-0.08351589887736172</v>
+        <v>0.01064691368457253</v>
       </c>
       <c r="F56">
-        <v>0.06629780146326036</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05430956694032735</v>
+      </c>
+      <c r="G56">
+        <v>-0.04273923995897962</v>
+      </c>
+      <c r="H56">
+        <v>0.0692418151226217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04185525654535718</v>
+        <v>-0.02804640640313669</v>
       </c>
       <c r="C57">
-        <v>-0.0341336410748657</v>
+        <v>0.00143113527457606</v>
       </c>
       <c r="D57">
-        <v>-0.02264191312654379</v>
+        <v>0.04097633664474875</v>
       </c>
       <c r="E57">
-        <v>0.01240775411089446</v>
+        <v>-0.009100789159742752</v>
       </c>
       <c r="F57">
-        <v>-0.04836367373143959</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.01514436427228022</v>
+      </c>
+      <c r="G57">
+        <v>0.06200920935066454</v>
+      </c>
+      <c r="H57">
+        <v>-0.05030843308135789</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1465374446262705</v>
+        <v>-0.0980520762527364</v>
       </c>
       <c r="C58">
-        <v>-0.2109003875406743</v>
+        <v>-0.09081123381248928</v>
       </c>
       <c r="D58">
-        <v>-0.2224472911708371</v>
+        <v>0.1636638517450756</v>
       </c>
       <c r="E58">
-        <v>-0.007278009261094316</v>
+        <v>-0.2856491571095424</v>
       </c>
       <c r="F58">
-        <v>-0.5359724144395616</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.3210683325517096</v>
+      </c>
+      <c r="G58">
+        <v>0.7748044985524477</v>
+      </c>
+      <c r="H58">
+        <v>0.2918057380017252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05373129401665664</v>
+        <v>-0.2006330898452432</v>
       </c>
       <c r="C59">
-        <v>-0.02900384109234755</v>
+        <v>0.05887066926509089</v>
       </c>
       <c r="D59">
-        <v>0.1848559708925251</v>
+        <v>-0.1752925578916241</v>
       </c>
       <c r="E59">
-        <v>0.03682163513307651</v>
+        <v>-0.007701152765428396</v>
       </c>
       <c r="F59">
-        <v>-0.0866238110967938</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.004814763971406416</v>
+      </c>
+      <c r="G59">
+        <v>0.01492075571199833</v>
+      </c>
+      <c r="H59">
+        <v>-0.01736193892449704</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.132679436586898</v>
+        <v>-0.21596960175024</v>
       </c>
       <c r="C60">
-        <v>-0.1178253036772832</v>
+        <v>-0.03834021326700292</v>
       </c>
       <c r="D60">
-        <v>0.0002595532207642142</v>
+        <v>0.0418399223070268</v>
       </c>
       <c r="E60">
-        <v>0.01387833453013395</v>
+        <v>-0.05459923432524938</v>
       </c>
       <c r="F60">
-        <v>-0.1662249315984165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.08194496905484126</v>
+      </c>
+      <c r="G60">
+        <v>0.02818916833443541</v>
+      </c>
+      <c r="H60">
+        <v>-0.3922597334752312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02237386893989067</v>
+        <v>-0.01458357105188945</v>
       </c>
       <c r="C61">
-        <v>-0.01173181846354818</v>
+        <v>-0.02768755110378037</v>
       </c>
       <c r="D61">
-        <v>-0.04339516162923765</v>
+        <v>0.05396961271997568</v>
       </c>
       <c r="E61">
-        <v>-0.01168179025183745</v>
+        <v>0.003561565520688347</v>
       </c>
       <c r="F61">
-        <v>-0.01580480684635237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01377081380014327</v>
+      </c>
+      <c r="G61">
+        <v>0.02162524712350153</v>
+      </c>
+      <c r="H61">
+        <v>-0.05610588258174817</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.013670440204101</v>
+        <v>-0.007364845136141532</v>
       </c>
       <c r="C63">
-        <v>-0.003096854493526321</v>
+        <v>-0.004812875373402771</v>
       </c>
       <c r="D63">
-        <v>-0.023387356565537</v>
+        <v>0.02300493455267435</v>
       </c>
       <c r="E63">
-        <v>0.004081193689503922</v>
+        <v>0.008790418033217506</v>
       </c>
       <c r="F63">
-        <v>-0.005028918858479925</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.0003048155959567106</v>
+      </c>
+      <c r="G63">
+        <v>0.01319201997279099</v>
+      </c>
+      <c r="H63">
+        <v>-0.01377709812328731</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03533064211540667</v>
+        <v>-0.03639434120078678</v>
       </c>
       <c r="C64">
-        <v>-0.002538388808343574</v>
+        <v>-0.02018271948226439</v>
       </c>
       <c r="D64">
-        <v>-0.03132753275881915</v>
+        <v>0.03714358364283065</v>
       </c>
       <c r="E64">
-        <v>-0.01903469919505493</v>
+        <v>0.01611070962611973</v>
       </c>
       <c r="F64">
-        <v>-0.01725614899038534</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.005466542248167418</v>
+      </c>
+      <c r="G64">
+        <v>-0.01137084759198164</v>
+      </c>
+      <c r="H64">
+        <v>-0.04739961090931839</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03733683000562137</v>
+        <v>-0.04243553077913629</v>
       </c>
       <c r="C65">
-        <v>-0.0159244394539294</v>
+        <v>-0.02796290446882089</v>
       </c>
       <c r="D65">
-        <v>-0.039346084761014</v>
+        <v>0.07420275536710765</v>
       </c>
       <c r="E65">
-        <v>-0.0252201652572934</v>
+        <v>0.007590326320064744</v>
       </c>
       <c r="F65">
-        <v>-0.005036547622377716</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04698440477108057</v>
+      </c>
+      <c r="G65">
+        <v>0.0009252065430703788</v>
+      </c>
+      <c r="H65">
+        <v>-0.07545471964768126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03377586313363654</v>
+        <v>-0.01582671020582647</v>
       </c>
       <c r="C66">
-        <v>-0.0320089428157889</v>
+        <v>-0.04822364017098815</v>
       </c>
       <c r="D66">
-        <v>-0.06349104332847473</v>
+        <v>0.1014597634005765</v>
       </c>
       <c r="E66">
-        <v>-0.04358318794808545</v>
+        <v>-0.007428294559034525</v>
       </c>
       <c r="F66">
-        <v>-0.03170627730277895</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03229387998674207</v>
+      </c>
+      <c r="G66">
+        <v>0.03091598928392463</v>
+      </c>
+      <c r="H66">
+        <v>-0.08423180922839063</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01928053255202961</v>
+        <v>-0.04607792371600504</v>
       </c>
       <c r="C67">
-        <v>-0.0158950293358055</v>
+        <v>-0.02218992113541427</v>
       </c>
       <c r="D67">
-        <v>0.008905611939505478</v>
+        <v>0.01589727290076918</v>
       </c>
       <c r="E67">
-        <v>0.007295978561279396</v>
+        <v>-0.001035599259414725</v>
       </c>
       <c r="F67">
-        <v>-0.02721325964215351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01499611107662545</v>
+      </c>
+      <c r="G67">
+        <v>0.01509840040038455</v>
+      </c>
+      <c r="H67">
+        <v>-0.03014514715703415</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06718740303624118</v>
+        <v>-0.198598574563823</v>
       </c>
       <c r="C68">
-        <v>-0.02525035496962742</v>
+        <v>0.09069362051573059</v>
       </c>
       <c r="D68">
-        <v>0.2106626667632304</v>
+        <v>-0.1927934014069551</v>
       </c>
       <c r="E68">
-        <v>0.05186753221473548</v>
+        <v>-0.008526648373921194</v>
       </c>
       <c r="F68">
-        <v>-0.0780595559820009</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.0509864446856095</v>
+      </c>
+      <c r="G68">
+        <v>0.02204893632986874</v>
+      </c>
+      <c r="H68">
+        <v>0.04592276476189912</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05875638633904171</v>
+        <v>-0.05771861550146117</v>
       </c>
       <c r="C69">
-        <v>-0.03984181118573911</v>
+        <v>-0.04101239737664543</v>
       </c>
       <c r="D69">
-        <v>-0.01637334980511501</v>
+        <v>0.04274698506875733</v>
       </c>
       <c r="E69">
-        <v>-0.0361489563362459</v>
+        <v>0.004917412524758882</v>
       </c>
       <c r="F69">
-        <v>-0.007152262685639562</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02658005361092811</v>
+      </c>
+      <c r="G69">
+        <v>-0.005258893549240443</v>
+      </c>
+      <c r="H69">
+        <v>-0.006499604998111807</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07554840672260722</v>
+        <v>-0.1788106360690673</v>
       </c>
       <c r="C71">
-        <v>-0.03482053532040669</v>
+        <v>0.06547256415362974</v>
       </c>
       <c r="D71">
-        <v>0.2130581586722882</v>
+        <v>-0.1569366635659423</v>
       </c>
       <c r="E71">
-        <v>0.08725769276045034</v>
+        <v>-0.01246189450949367</v>
       </c>
       <c r="F71">
-        <v>-0.08143665358321703</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06215452880756653</v>
+      </c>
+      <c r="G71">
+        <v>0.02409371100976404</v>
+      </c>
+      <c r="H71">
+        <v>0.02734762266244292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09869306670209413</v>
+        <v>-0.06217007569728017</v>
       </c>
       <c r="C72">
-        <v>-0.08187120450835872</v>
+        <v>-0.06606857896087934</v>
       </c>
       <c r="D72">
-        <v>-0.06617834595450779</v>
+        <v>0.08537105637732283</v>
       </c>
       <c r="E72">
-        <v>-0.09499945607850313</v>
+        <v>-0.01491613854313334</v>
       </c>
       <c r="F72">
-        <v>-0.07027797255711443</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.06945367103479128</v>
+      </c>
+      <c r="G72">
+        <v>0.0343847656346364</v>
+      </c>
+      <c r="H72">
+        <v>-0.0980558588684232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1676852022853262</v>
+        <v>-0.2829351292031695</v>
       </c>
       <c r="C73">
-        <v>-0.1855963490567954</v>
+        <v>-0.07015641685663425</v>
       </c>
       <c r="D73">
-        <v>0.02140691929372006</v>
+        <v>0.1025501094874136</v>
       </c>
       <c r="E73">
-        <v>0.05889851288600629</v>
+        <v>-0.09540987826876038</v>
       </c>
       <c r="F73">
-        <v>-0.2047641376281593</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.09196102282215822</v>
+      </c>
+      <c r="G73">
+        <v>0.03042968140211891</v>
+      </c>
+      <c r="H73">
+        <v>-0.490728370111189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1157068466125072</v>
+        <v>-0.09869405188113069</v>
       </c>
       <c r="C74">
-        <v>-0.07331253052091226</v>
+        <v>-0.08208441515956036</v>
       </c>
       <c r="D74">
-        <v>-0.02238631641690938</v>
+        <v>0.1057210516325056</v>
       </c>
       <c r="E74">
-        <v>-0.04606109617825515</v>
+        <v>0.01190841749726935</v>
       </c>
       <c r="F74">
-        <v>0.07820686076540692</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.03840892084602376</v>
+      </c>
+      <c r="G74">
+        <v>-0.03197436277529581</v>
+      </c>
+      <c r="H74">
+        <v>0.04107599730445526</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1996269459343647</v>
+        <v>-0.2046639076515205</v>
       </c>
       <c r="C75">
-        <v>-0.1435477062859167</v>
+        <v>-0.1438888827603736</v>
       </c>
       <c r="D75">
-        <v>-0.01301221443811213</v>
+        <v>0.1659329868077152</v>
       </c>
       <c r="E75">
-        <v>-0.1502116731023521</v>
+        <v>0.00869672570319442</v>
       </c>
       <c r="F75">
-        <v>0.1225722751555211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1045819267294234</v>
+      </c>
+      <c r="G75">
+        <v>-0.07568774036712131</v>
+      </c>
+      <c r="H75">
+        <v>0.1477602659106307</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2494803751639005</v>
+        <v>-0.1602654412386963</v>
       </c>
       <c r="C76">
-        <v>-0.1332215036324333</v>
+        <v>-0.1310831269763928</v>
       </c>
       <c r="D76">
-        <v>-0.02717729140752782</v>
+        <v>0.1547284261425507</v>
       </c>
       <c r="E76">
-        <v>-0.1793899787836851</v>
+        <v>0.0465106156434589</v>
       </c>
       <c r="F76">
-        <v>0.1996178468530037</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.09135890730978702</v>
+      </c>
+      <c r="G76">
+        <v>-0.06644993645591492</v>
+      </c>
+      <c r="H76">
+        <v>0.1303255745104897</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08920347528464991</v>
+        <v>-0.04983031168911372</v>
       </c>
       <c r="C77">
-        <v>-0.06849980515286334</v>
+        <v>-0.03476017760156734</v>
       </c>
       <c r="D77">
-        <v>-0.09758181894704702</v>
+        <v>0.08206256388436037</v>
       </c>
       <c r="E77">
-        <v>0.05680442661634585</v>
+        <v>-0.01805765524741777</v>
       </c>
       <c r="F77">
-        <v>-0.1337641422914072</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.04320977244546077</v>
+      </c>
+      <c r="G77">
+        <v>0.06072618033921835</v>
+      </c>
+      <c r="H77">
+        <v>-0.01366290448898713</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06164065276206734</v>
+        <v>-0.02828771570485099</v>
       </c>
       <c r="C78">
-        <v>-0.03281056083620648</v>
+        <v>-0.03598482322160716</v>
       </c>
       <c r="D78">
-        <v>-0.1147386970830976</v>
+        <v>0.07055101953263371</v>
       </c>
       <c r="E78">
-        <v>-0.03562665576153339</v>
+        <v>0.005097387645902056</v>
       </c>
       <c r="F78">
-        <v>-0.08118381682866818</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.006597309772903835</v>
+      </c>
+      <c r="G78">
+        <v>0.05479044208583642</v>
+      </c>
+      <c r="H78">
+        <v>-0.0923914358097727</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.5917288643577959</v>
+        <v>-0.1097443488983202</v>
       </c>
       <c r="C80">
-        <v>0.7856002908824935</v>
+        <v>-0.05408672724361951</v>
       </c>
       <c r="D80">
-        <v>-0.07228181414788735</v>
+        <v>0.08995374519852627</v>
       </c>
       <c r="E80">
-        <v>0.04314206538140181</v>
+        <v>0.9108720285187205</v>
       </c>
       <c r="F80">
-        <v>-0.04171256655361429</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.2996602497084492</v>
+      </c>
+      <c r="G80">
+        <v>0.1447377933310733</v>
+      </c>
+      <c r="H80">
+        <v>-0.02828511266936184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1589376172797382</v>
+        <v>-0.1329720610207393</v>
       </c>
       <c r="C81">
-        <v>-0.09893228834926451</v>
+        <v>-0.08947815661053597</v>
       </c>
       <c r="D81">
-        <v>-0.005627534374122493</v>
+        <v>0.1033294492228004</v>
       </c>
       <c r="E81">
-        <v>-0.1150809389555797</v>
+        <v>0.01695546340472838</v>
       </c>
       <c r="F81">
-        <v>0.1114907940084876</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.05897183475059561</v>
+      </c>
+      <c r="G81">
+        <v>-0.04671398344219099</v>
+      </c>
+      <c r="H81">
+        <v>0.08536357548347125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03209233944999709</v>
+        <v>-0.02750898913656735</v>
       </c>
       <c r="C83">
-        <v>-0.02770505117865522</v>
+        <v>-0.01131974321251453</v>
       </c>
       <c r="D83">
-        <v>-0.02926515013978263</v>
+        <v>0.02436821217533</v>
       </c>
       <c r="E83">
-        <v>0.01291373086963382</v>
+        <v>-0.006873384972888394</v>
       </c>
       <c r="F83">
-        <v>-0.05486343566862732</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01052284282002436</v>
+      </c>
+      <c r="G83">
+        <v>0.03754116348576979</v>
+      </c>
+      <c r="H83">
+        <v>-0.04134201128919482</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2230311263789015</v>
+        <v>-0.1916333178873676</v>
       </c>
       <c r="C85">
-        <v>-0.1466235117439056</v>
+        <v>-0.1315756962652003</v>
       </c>
       <c r="D85">
-        <v>-0.02418712365432942</v>
+        <v>0.1736040405570746</v>
       </c>
       <c r="E85">
-        <v>-0.1403688632008974</v>
+        <v>0.007477909541530639</v>
       </c>
       <c r="F85">
-        <v>0.1518622934606885</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1027071259562682</v>
+      </c>
+      <c r="G85">
+        <v>-0.1047597695436893</v>
+      </c>
+      <c r="H85">
+        <v>0.07906982108072148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.009916214403050592</v>
+        <v>-0.01439404330299266</v>
       </c>
       <c r="C86">
-        <v>0.00192678919809363</v>
+        <v>-0.0131826350072416</v>
       </c>
       <c r="D86">
-        <v>-0.07841693432261443</v>
+        <v>0.03670388765062923</v>
       </c>
       <c r="E86">
-        <v>-0.001994984098326865</v>
+        <v>0.007309362018718962</v>
       </c>
       <c r="F86">
-        <v>-0.05010053544553456</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02192148620313428</v>
+      </c>
+      <c r="G86">
+        <v>0.03328457827524344</v>
+      </c>
+      <c r="H86">
+        <v>-0.07685274072598358</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03338623250855149</v>
+        <v>-0.01347033546183128</v>
       </c>
       <c r="C87">
-        <v>-0.01906735986590227</v>
+        <v>-0.01471018083652675</v>
       </c>
       <c r="D87">
-        <v>-0.0424434583014824</v>
+        <v>0.04175195846948214</v>
       </c>
       <c r="E87">
-        <v>-0.003180440253286385</v>
+        <v>-0.001056893533219527</v>
       </c>
       <c r="F87">
-        <v>-0.1063228692127286</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.01458917270981791</v>
+      </c>
+      <c r="G87">
+        <v>0.0698942288972446</v>
+      </c>
+      <c r="H87">
+        <v>-0.07952160342706656</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.02139789233211276</v>
+        <v>-0.04178569541722446</v>
       </c>
       <c r="C88">
-        <v>0.002185611520663849</v>
+        <v>0.004514237804866318</v>
       </c>
       <c r="D88">
-        <v>0.003256288368764426</v>
+        <v>0.02599988038111217</v>
       </c>
       <c r="E88">
-        <v>-0.0173410909000517</v>
+        <v>0.02146962824967903</v>
       </c>
       <c r="F88">
-        <v>0.01753489337882659</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.0164835945210986</v>
+      </c>
+      <c r="G88">
+        <v>-0.002860666180474898</v>
+      </c>
+      <c r="H88">
+        <v>-0.009004170978381522</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1001314954354598</v>
+        <v>-0.3070480949718423</v>
       </c>
       <c r="C89">
-        <v>-0.05040757147604953</v>
+        <v>0.1174694273637322</v>
       </c>
       <c r="D89">
-        <v>0.3373875667491498</v>
+        <v>-0.2780811525414189</v>
       </c>
       <c r="E89">
-        <v>0.06796423823610559</v>
+        <v>-0.009101685237767001</v>
       </c>
       <c r="F89">
-        <v>-0.1030513473989176</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01673477261673469</v>
+      </c>
+      <c r="G89">
+        <v>-0.02131309466250728</v>
+      </c>
+      <c r="H89">
+        <v>0.01156935037769018</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08565142918359933</v>
+        <v>-0.2547524090210923</v>
       </c>
       <c r="C90">
-        <v>-0.01806470286980257</v>
+        <v>0.1093824886113681</v>
       </c>
       <c r="D90">
-        <v>0.3586270453608483</v>
+        <v>-0.2581400785484103</v>
       </c>
       <c r="E90">
-        <v>0.08460700435956579</v>
+        <v>-0.001450795632636293</v>
       </c>
       <c r="F90">
-        <v>-0.0550154587643648</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05613761229748153</v>
+      </c>
+      <c r="G90">
+        <v>-0.005601268665984316</v>
+      </c>
+      <c r="H90">
+        <v>0.06005262347650227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.252496269090224</v>
+        <v>-0.2030478749403895</v>
       </c>
       <c r="C91">
-        <v>-0.1877959597840434</v>
+        <v>-0.1351760014886062</v>
       </c>
       <c r="D91">
-        <v>-0.02172449586034278</v>
+        <v>0.1537255554511127</v>
       </c>
       <c r="E91">
-        <v>-0.1176425775438365</v>
+        <v>-0.003942603558690741</v>
       </c>
       <c r="F91">
-        <v>0.240076514129432</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.08892069018654958</v>
+      </c>
+      <c r="G91">
+        <v>-0.09926846560906379</v>
+      </c>
+      <c r="H91">
+        <v>0.1655703151874774</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1579348128236445</v>
+        <v>-0.2768801474515329</v>
       </c>
       <c r="C92">
-        <v>-0.07821490359259607</v>
+        <v>0.02190478624676908</v>
       </c>
       <c r="D92">
-        <v>0.4242664540170071</v>
+        <v>-0.1929488270059546</v>
       </c>
       <c r="E92">
-        <v>-0.06386558632444317</v>
+        <v>0.005124815452620976</v>
       </c>
       <c r="F92">
-        <v>0.05102319763288066</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.007088955297208138</v>
+      </c>
+      <c r="G92">
+        <v>0.03663296277542281</v>
+      </c>
+      <c r="H92">
+        <v>0.1600104009374976</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08837447918548101</v>
+        <v>-0.2867755562721773</v>
       </c>
       <c r="C93">
-        <v>-0.06319200866282777</v>
+        <v>0.09904536424082265</v>
       </c>
       <c r="D93">
-        <v>0.4230570960646915</v>
+        <v>-0.2599876646047639</v>
       </c>
       <c r="E93">
-        <v>0.1260554380127786</v>
+        <v>-0.03403212325462562</v>
       </c>
       <c r="F93">
-        <v>-0.06189214896308046</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.05296131991438147</v>
+      </c>
+      <c r="G93">
+        <v>-0.01676207859513958</v>
+      </c>
+      <c r="H93">
+        <v>-0.0004179922309572941</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2457427486235271</v>
+        <v>-0.2468285656633532</v>
       </c>
       <c r="C94">
-        <v>-0.1930045675245296</v>
+        <v>-0.141887654240706</v>
       </c>
       <c r="D94">
-        <v>-0.01739599508518309</v>
+        <v>0.1825982813200749</v>
       </c>
       <c r="E94">
-        <v>-0.2263550255913556</v>
+        <v>-0.008436737479090824</v>
       </c>
       <c r="F94">
-        <v>0.1894162467271796</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2249440795184987</v>
+      </c>
+      <c r="G94">
+        <v>-0.1627953161708619</v>
+      </c>
+      <c r="H94">
+        <v>0.3920633710448647</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01333551907788586</v>
+        <v>-0.0324541804758466</v>
       </c>
       <c r="C95">
-        <v>-0.08583408845025724</v>
+        <v>-0.0562609175521723</v>
       </c>
       <c r="D95">
-        <v>-0.04024996356960769</v>
+        <v>0.0804552351889046</v>
       </c>
       <c r="E95">
-        <v>-0.01954179760978897</v>
+        <v>-0.08116931884862026</v>
       </c>
       <c r="F95">
-        <v>-0.01560534724918665</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.01904415621998084</v>
+      </c>
+      <c r="G95">
+        <v>0.03525159552625494</v>
+      </c>
+      <c r="H95">
+        <v>-0.03155635666732179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1364488564477496</v>
+        <v>-0.1860508645267099</v>
       </c>
       <c r="C98">
-        <v>-0.1204656900365062</v>
+        <v>-0.06094470390590621</v>
       </c>
       <c r="D98">
-        <v>0.01993434216931267</v>
+        <v>0.03461951438673917</v>
       </c>
       <c r="E98">
-        <v>0.04759612493989399</v>
+        <v>-0.06416527343910036</v>
       </c>
       <c r="F98">
-        <v>-0.1691845734988714</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.00871660907871695</v>
+      </c>
+      <c r="G98">
+        <v>0.06601820618301427</v>
+      </c>
+      <c r="H98">
+        <v>-0.3281946595205073</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01168376299047063</v>
+        <v>-0.009991994930516454</v>
       </c>
       <c r="C101">
-        <v>0.001426595269053932</v>
+        <v>-0.005174649147501619</v>
       </c>
       <c r="D101">
-        <v>-0.06187135457354356</v>
+        <v>0.02038390115710538</v>
       </c>
       <c r="E101">
-        <v>-0.02829371264763751</v>
+        <v>-0.000607885067054485</v>
       </c>
       <c r="F101">
-        <v>-0.1675409313141633</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.0157925338858708</v>
+      </c>
+      <c r="G101">
+        <v>0.09363936989768502</v>
+      </c>
+      <c r="H101">
+        <v>0.01079324975789528</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1006448463313817</v>
+        <v>-0.09640808420752789</v>
       </c>
       <c r="C102">
-        <v>-0.06276371068160869</v>
+        <v>-0.05619286637030481</v>
       </c>
       <c r="D102">
-        <v>-0.01500572371629685</v>
+        <v>0.08386417476374228</v>
       </c>
       <c r="E102">
-        <v>-0.07158027610619386</v>
+        <v>0.007786772130940522</v>
       </c>
       <c r="F102">
-        <v>0.09347374897659556</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.05626409466280669</v>
+      </c>
+      <c r="G102">
+        <v>-0.04865804531451993</v>
+      </c>
+      <c r="H102">
+        <v>0.06141038571461377</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04462652360840966</v>
+        <v>-0.01266072138190603</v>
       </c>
       <c r="C103">
-        <v>-0.01352302790967245</v>
+        <v>-0.01051768027398884</v>
       </c>
       <c r="D103">
-        <v>-0.02172548541964438</v>
+        <v>0.01577392615540652</v>
       </c>
       <c r="E103">
-        <v>-0.03608060015460432</v>
+        <v>0.01318475489521084</v>
       </c>
       <c r="F103">
-        <v>0.009959538745685644</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.001915128139800632</v>
+      </c>
+      <c r="G103">
+        <v>0.005443319869021329</v>
+      </c>
+      <c r="H103">
+        <v>0.01557191567738639</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1202573355398055</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8748996407568306</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.4375462397772799</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02895885454551671</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1224148462689598</v>
+      </c>
+      <c r="G104">
+        <v>0.03148706548885202</v>
+      </c>
+      <c r="H104">
+        <v>0.05253764500286392</v>
       </c>
     </row>
   </sheetData>
